--- a/ig/ch-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
+++ b/ig/ch-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
@@ -24,12 +24,13 @@
     <sheet name="Mapping Table 14" r:id="rId18" sheetId="16"/>
     <sheet name="Mapping Table 15" r:id="rId19" sheetId="17"/>
     <sheet name="Mapping Table 16" r:id="rId20" sheetId="18"/>
+    <sheet name="Mapping Table 17" r:id="rId21" sheetId="19"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -46,7 +47,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -73,7 +74,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,7 +89,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -109,7 +110,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>This artefact includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these artefacts must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/getsnomed-ct or info@snomed.org.</t>
+    <t>This artefact includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these artefacts must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/getsnomed-ct or info@snomed.org.This artefact includes content from SNOMED Clinical Terms® (SNOMED CT®) which is copyright of the International Health Terminology Standards Development Organisation (IHTSDO). Implementers of these artefacts must have the appropriate SNOMED CT Affiliate license - for more information contact http://www.snomed.org/snomed-ct/getsnomed-ct or info@snomed.org.</t>
   </si>
   <si>
     <t>Source</t>
@@ -223,6 +224,12 @@
     <t>Medication summary document (record artifact)</t>
   </si>
   <si>
+    <t>736378000</t>
+  </si>
+  <si>
+    <t>Medication management plan (record artifact)</t>
+  </si>
+  <si>
     <t>371525003</t>
   </si>
   <si>
@@ -289,6 +296,12 @@
     <t>Rehabilitation care plan (record artifact)</t>
   </si>
   <si>
+    <t>761931002</t>
+  </si>
+  <si>
+    <t>Medication treatment plan report (record artifact)</t>
+  </si>
+  <si>
     <t>440545006</t>
   </si>
   <si>
@@ -383,6 +396,12 @@
   </si>
   <si>
     <t>Professional allied to medicine clinical report (record artifact)</t>
+  </si>
+  <si>
+    <t>82291000195104</t>
+  </si>
+  <si>
+    <t>Medication dispense document (record artifact)</t>
   </si>
   <si>
     <t>2171000195109</t>
@@ -715,10 +734,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -779,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -843,10 +862,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -907,10 +926,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -971,10 +990,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
@@ -1035,27 +1054,27 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
@@ -1116,44 +1135,44 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -1214,19 +1233,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1278,6 +1297,70 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
         <v>44</v>
       </c>
       <c r="B3" t="s" s="2">
@@ -1594,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1696,9 +1779,26 @@
         <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>45</v>
       </c>
     </row>
@@ -1751,112 +1851,112 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>37</v>
@@ -1875,7 +1975,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1917,69 +2017,86 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D6" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="E6" t="s" s="2">
+      <c r="E7" t="s" s="2">
         <v>45</v>
       </c>
     </row>
@@ -2032,44 +2149,44 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>
@@ -2130,44 +2247,44 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>37</v>

--- a/ig/ch-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
+++ b/ig/ch-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
@@ -47,7 +47,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,7 +74,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -89,7 +89,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/ig/ch-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
+++ b/ig/ch-term/DocumentEntryClassCodeToDocumentEntryTypeCode.xlsx
@@ -47,7 +47,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -74,7 +74,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
